--- a/problemearégler.xlsx
+++ b/problemearégler.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/medhidardenne/stage/bsboisconcept/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bbsymphony/Workspace/bsboisconcept/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7117F6F8-BF92-A042-A0F8-60E1A3162661}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24E39CDF-A283-6A4E-BD66-2D3B01B64097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{004F8F01-6BA5-F54D-AB37-ACDBB5641ED0}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{004F8F01-6BA5-F54D-AB37-ACDBB5641ED0}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
   <si>
     <t>id</t>
   </si>
@@ -84,6 +84,24 @@
   </si>
   <si>
     <t>yanis s'est trompé</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Corrigé</t>
+  </si>
+  <si>
+    <t>Not an issue</t>
+  </si>
+  <si>
+    <t>A corriger</t>
+  </si>
+  <si>
+    <t>Yanis va trouver une nouvelle image</t>
+  </si>
+  <si>
+    <t>Solution</t>
   </si>
 </sst>
 </file>
@@ -107,7 +125,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -115,12 +133,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -139,7 +173,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -435,115 +469,147 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16F5A52C-F4FD-BB43-B831-E003872101B7}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="322" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:C6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="240" zoomScaleNormal="240" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.5" customWidth="1"/>
     <col min="3" max="3" width="39.1640625" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="F6" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/problemearégler.xlsx
+++ b/problemearégler.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bbsymphony/Workspace/bsboisconcept/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/medhidardenne/stage/bsboisconcept/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24E39CDF-A283-6A4E-BD66-2D3B01B64097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBDD44EA-D681-A241-AFA4-DDFB90ABC767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{004F8F01-6BA5-F54D-AB37-ACDBB5641ED0}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{004F8F01-6BA5-F54D-AB37-ACDBB5641ED0}"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Probleme" sheetId="1" r:id="rId1"/>
+    <sheet name="Photo" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="75">
   <si>
     <t>id</t>
   </si>
@@ -102,6 +103,162 @@
   </si>
   <si>
     <t>Solution</t>
+  </si>
+  <si>
+    <t>IMG_3496.jpg</t>
+  </si>
+  <si>
+    <t>IMG_3495.jpg</t>
+  </si>
+  <si>
+    <t>IMG_3494.jpg</t>
+  </si>
+  <si>
+    <t>IMG_3493.jpg</t>
+  </si>
+  <si>
+    <t>IMG_3492.jpg</t>
+  </si>
+  <si>
+    <t>Chalet et Abri pareil (Mettre chalet)</t>
+  </si>
+  <si>
+    <t>Image bardage bois a mettre</t>
+  </si>
+  <si>
+    <t>Marcq en Baroeuil</t>
+  </si>
+  <si>
+    <t>Marquette Lez Lille</t>
+  </si>
+  <si>
+    <t>Chale, toiture plat, moderne 8m2</t>
+  </si>
+  <si>
+    <t>Chale tradition moderne 8m2</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
+    <t>Chale, toiture plat, moderne, double Abri buches 8m2</t>
+  </si>
+  <si>
+    <t>Neuville en Ferrain</t>
+  </si>
+  <si>
+    <t>Chale, toiture plat, moderne 12m2</t>
+  </si>
+  <si>
+    <t>Bondues</t>
+  </si>
+  <si>
+    <t>IMG_3491.jpg</t>
+  </si>
+  <si>
+    <t>IMG_3489.jpg</t>
+  </si>
+  <si>
+    <t>Chalet</t>
+  </si>
+  <si>
+    <t>Bardage</t>
+  </si>
+  <si>
+    <t>Ajouter information Terrasse sapin epaisseur 28mm et largeur 14mm</t>
+  </si>
+  <si>
+    <t>Ajouter information Chalet epaisseur 28mm et largeur 13.5mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ajouter information Terrasse ip epaisseur 22mm et largeur </t>
+  </si>
+  <si>
+    <t>Ajouter Savoir faire terrasse</t>
+  </si>
+  <si>
+    <t>IMG_3503.jpg</t>
+  </si>
+  <si>
+    <t>IMG_3502.jpg</t>
+  </si>
+  <si>
+    <t>IMG_3499.jpg</t>
+  </si>
+  <si>
+    <t>IMG_3500.jpg</t>
+  </si>
+  <si>
+    <t>IMG_3501.jpg</t>
+  </si>
+  <si>
+    <t>IMG_3488.jpg</t>
+  </si>
+  <si>
+    <t>IMG_3490.jpg</t>
+  </si>
+  <si>
+    <t>IMG_3498.jpg</t>
+  </si>
+  <si>
+    <t>IMG_3487.jpg</t>
+  </si>
+  <si>
+    <t>IMG_3486.jpg</t>
+  </si>
+  <si>
+    <t>IMG_3485.jpg</t>
+  </si>
+  <si>
+    <t>Terrasse</t>
+  </si>
+  <si>
+    <t>Terrasse sapin rouge du nord</t>
+  </si>
+  <si>
+    <t>Terrasse IP</t>
+  </si>
+  <si>
+    <t>Roncq</t>
+  </si>
+  <si>
+    <t>Hembeaumont</t>
+  </si>
+  <si>
+    <t>Pergola</t>
+  </si>
+  <si>
+    <t>Wattrelos</t>
+  </si>
+  <si>
+    <t>Wasquehal</t>
+  </si>
+  <si>
+    <t>Envelin</t>
+  </si>
+  <si>
+    <t>Bardage 45m2</t>
+  </si>
+  <si>
+    <t>Croix</t>
+  </si>
+  <si>
+    <t>Bardarge 40m2</t>
+  </si>
+  <si>
+    <t>Montaleux</t>
+  </si>
+  <si>
+    <t>Mettre a jour les photos avec les bons lieux et information</t>
+  </si>
+  <si>
+    <t>Tonton Samir envoye CARPORT du debut a la fin. Yanis a mettre a jour le site</t>
+  </si>
+  <si>
+    <t>Ajout video CARPORT</t>
+  </si>
+  <si>
+    <t>Manque photo cloture (tonton Samir)</t>
   </si>
 </sst>
 </file>
@@ -173,7 +330,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -469,16 +626,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16F5A52C-F4FD-BB43-B831-E003872101B7}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="240" zoomScaleNormal="240" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="240" zoomScaleNormal="240" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.5" customWidth="1"/>
-    <col min="3" max="3" width="39.1640625" customWidth="1"/>
+    <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="64.6640625" customWidth="1"/>
     <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="31.1640625" bestFit="1" customWidth="1"/>
   </cols>
@@ -586,7 +743,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>12</v>
@@ -605,11 +762,454 @@
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E3E4C47-6ED2-9145-8E9C-F1DF95B3736A}">
+  <dimension ref="B2:F19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" t="s">
+        <v>64</v>
+      </c>
+      <c r="F14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" t="s">
+        <v>60</v>
+      </c>
+      <c r="E16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" t="s">
+        <v>65</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/problemearégler.xlsx
+++ b/problemearégler.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/medhidardenne/stage/bsboisconcept/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBDD44EA-D681-A241-AFA4-DDFB90ABC767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04321179-7B40-634F-891C-CCB836B4BBC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{004F8F01-6BA5-F54D-AB37-ACDBB5641ED0}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{004F8F01-6BA5-F54D-AB37-ACDBB5641ED0}"/>
   </bookViews>
   <sheets>
     <sheet name="Probleme" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="76">
   <si>
     <t>id</t>
   </si>
@@ -259,6 +259,9 @@
   </si>
   <si>
     <t>Manque photo cloture (tonton Samir)</t>
+  </si>
+  <si>
+    <t>corriger</t>
   </si>
 </sst>
 </file>
@@ -628,8 +631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16F5A52C-F4FD-BB43-B831-E003872101B7}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="240" zoomScaleNormal="240" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView topLeftCell="B2" zoomScale="240" zoomScaleNormal="240" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -877,7 +880,7 @@
         <v>71</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>13</v>
@@ -931,7 +934,7 @@
         <v>74</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>13</v>
@@ -947,13 +950,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E3E4C47-6ED2-9145-8E9C-F1DF95B3736A}">
   <dimension ref="B2:F19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="45.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.2">
